--- a/results_contrastive.xlsx
+++ b/results_contrastive.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\001149822\personal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\001149822\personal\teseMECD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EA274B-3BDC-458B-8871-507F0169DA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12BF058-450F-4072-BA65-FB19DBB98E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F452F5A9-EF1A-4D48-9C12-86DDE50AB941}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{225721F7-8DBD-4D17-B95F-7E9DEE6E05E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>dataset</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+  <si>
+    <t>dataset size</t>
   </si>
   <si>
     <t>extended</t>
@@ -46,57 +47,122 @@
     <t>augmented</t>
   </si>
   <si>
+    <t>min size df</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>epochs</t>
+  </si>
+  <si>
     <t>test acc</t>
   </si>
   <si>
     <t>dev acc</t>
   </si>
   <si>
-    <t>epochs</t>
-  </si>
-  <si>
-    <t>train</t>
+    <t>loss</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>contrastive dataset</t>
-  </si>
-  <si>
     <t>captions</t>
   </si>
   <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>dataset size</t>
-  </si>
-  <si>
-    <t>contrastive size</t>
-  </si>
-  <si>
-    <t>min size df</t>
-  </si>
-  <si>
-    <t>1*visualoutput_contrastive3D</t>
+    <t>final training loss</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>crossEntropyLoss</t>
+  </si>
+  <si>
+    <t>training loss 1st epoch</t>
+  </si>
+  <si>
+    <t>(only tested for one epoch)</t>
+  </si>
+  <si>
+    <t>contrastive2D(pooled_output)</t>
+  </si>
+  <si>
+    <t>contrastive3D(norm(visual_output))</t>
+  </si>
+  <si>
+    <t>contrastive3D(norm(language_output))</t>
+  </si>
+  <si>
+    <t>Non-contrastive</t>
+  </si>
+  <si>
+    <t>Treino original - cross entropy loss vai decrescendo</t>
+  </si>
+  <si>
+    <t>Loss decresce um pouco, mas não existem melhorias tangíveis na accuracy</t>
+  </si>
+  <si>
+    <t>Loss decresce um pouco, mas a accuracy foi de 50% passada uma época</t>
+  </si>
+  <si>
+    <t>contrastive2D(norm(visual_output))</t>
+  </si>
+  <si>
+    <t>Passado uma epoch a accuracy decresceu para 0.6865</t>
+  </si>
+  <si>
+    <t>contrastive2D(norm(visual_output))+contrastive2D(pooled_output)</t>
+  </si>
+  <si>
+    <t>contrastive3D(norm(visual_output))+contrastive2D(pooled_output)</t>
+  </si>
+  <si>
+    <t>contrastive2D(norm(pooled_output))</t>
+  </si>
+  <si>
+    <t>contrastive df size</t>
+  </si>
+  <si>
+    <t>contrastive df type</t>
+  </si>
+  <si>
+    <t>contrastive2D(norm(vision_output))</t>
+  </si>
+  <si>
+    <t>contrastive3D(norm(vision_output))+contrastive2D(norm(pooled_output))</t>
+  </si>
+  <si>
+    <t>Original cross entropy training</t>
+  </si>
+  <si>
+    <t>Contrastive training on the original dataset</t>
+  </si>
+  <si>
+    <t>Contrastive training on the extended dataset</t>
+  </si>
+  <si>
+    <t>contrastive2D(norm(vision_output))+contrastive2D(norm(pooled_output))</t>
+  </si>
+  <si>
+    <t>Extended Dataset (positives)</t>
+  </si>
+  <si>
+    <t>contrastive3D(norm(vision_output))</t>
+  </si>
+  <si>
+    <t>Comentários</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,12 +177,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -155,14 +237,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -178,6 +278,582 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133514</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB6D5DC-4548-AE36-2E61-80867E5C4C9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1212850" y="450850"/>
+          <a:ext cx="3200564" cy="2044805"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165256</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3BD8AD-FC30-0478-930E-D2DF8B1C90F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4451350" y="495300"/>
+          <a:ext cx="3041806" cy="533427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>117624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>516236</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E7CE39-18E2-0329-831A-7160FF90BA5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4445000" y="1038374"/>
+          <a:ext cx="6447136" cy="1298426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>49834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>444839</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0749F3EB-968B-5E89-D5A5-73251E30C96B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1212850" y="2812084"/>
+          <a:ext cx="5340689" cy="2153753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>40885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>413079</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>146187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87318220-7725-E72E-6527-815957ED0C33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7346950" y="2803135"/>
+          <a:ext cx="4661229" cy="1946802"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>311481</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>31855</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1233E92-7B24-8625-6C54-5DFFA09BAA05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect t="5573"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="6565900"/>
+          <a:ext cx="6439231" cy="1936855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>32086</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>127066</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D072A3A-7163-96F7-F800-4D3423747E2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1206500" y="5359542"/>
+          <a:ext cx="6153486" cy="1212774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>222575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0DE629-D282-F3DE-6510-6129C5990707}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7937500" y="5340350"/>
+          <a:ext cx="6318575" cy="679485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>394034</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>139787</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2BC7B1-400B-BC61-B168-3CDDA4E966FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="5994400"/>
+          <a:ext cx="6502734" cy="1695537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400385</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>120713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C767CA-368A-AE1E-2CC5-444D2F0B5CEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="8839200"/>
+          <a:ext cx="6509085" cy="1225613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>235276</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>19108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A6A13BB-651D-C3D0-A90C-986D336AFF47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="10128250"/>
+          <a:ext cx="6343976" cy="1124008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558955</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>133374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC91DDD0-29DF-242C-882C-5B9D83E0D635}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="12185650"/>
+          <a:ext cx="3010055" cy="469924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2241665</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>69891</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B162C0-A44C-8681-D11E-884BD998C1E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="12706350"/>
+          <a:ext cx="2241665" cy="806491"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,103 +1152,527 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD93DAC1-8B2E-47C4-BECB-C4038D93CAC2}">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67347EDE-2342-4682-91F5-D15065DA83FD}">
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.36328125" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" width="40.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="2"/>
+    <col min="3" max="3" width="11.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="8.7265625" style="2"/>
+    <col min="10" max="10" width="12.90625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="55.90625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.08984375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23.7265625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="65.54296875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="N1" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>7079</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.75090000000000001</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.71179999999999999</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>7079</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1816</v>
+      </c>
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G6" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.75329999999999997</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="2">
+        <v>4.0096999999999996</v>
+      </c>
+      <c r="M6" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>7079</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1816</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.72109999999999996</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.69830000000000003</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.1736</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.15029999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7079</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1816</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.53442298167409596</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="K8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2.7357</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>7079</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1816</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H9" s="2">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="I9" s="2">
+        <v>0.72409999999999997</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.68049999999999999</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.1729</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.1467</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>7079</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>204</v>
+      </c>
+      <c r="F10" s="2">
         <v>4</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="G10" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.70779999999999998</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.69040000000000001</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1.135</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.97750000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>7079</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
+      <c r="E11" s="2">
+        <v>204</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>50</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.74790000000000001</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.72109999999999996</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="2">
+        <v>6.6536999999999997</v>
+      </c>
+      <c r="M11" s="2">
+        <v>5.7622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>7079</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
         <v>1816</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>0.75329999999999997</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C8" s="4"/>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>50</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.74390000000000001</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.71509999999999996</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2.3460999999999999</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1.8145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>7079</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <v>360</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H18" s="2">
+        <v>20</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.70779999999999998</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.69040000000000001</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="2">
+        <v>5.3577000000000004</v>
+      </c>
+      <c r="M18" s="2">
+        <v>5.0673000000000004</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605A86E5-B0B5-4366-A48F-36D8134D377A}">
+  <dimension ref="C2:K66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="35.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C66" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/results_contrastive.xlsx
+++ b/results_contrastive.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\001149822\personal\teseMECD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12BF058-450F-4072-BA65-FB19DBB98E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CD5A16-636C-432A-B115-131364D3C47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{225721F7-8DBD-4D17-B95F-7E9DEE6E05E0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{225721F7-8DBD-4D17-B95F-7E9DEE6E05E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -853,6 +853,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228708</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>101641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8220FE6-EEF8-8D7C-794C-2874D11695ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4235450" y="12750800"/>
+          <a:ext cx="2101958" cy="793791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330201</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>146545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9CB257-D2B8-8A21-C2A9-CC0332AF2CF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4279901" y="12268200"/>
+          <a:ext cx="2768600" cy="400545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1155,7 +1243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67347EDE-2342-4682-91F5-D15065DA83FD}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="95" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -1626,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605A86E5-B0B5-4366-A48F-36D8134D377A}">
   <dimension ref="C2:K66"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
